--- a/data/trans_orig/DCD-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/DCD-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>59313</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46163</v>
+        <v>45428</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75912</v>
+        <v>75774</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08431503873134213</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0656225594632355</v>
+        <v>0.06457671687571717</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1079114103522751</v>
+        <v>0.1077140926849796</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -764,19 +764,19 @@
         <v>131549</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111029</v>
+        <v>112054</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>152946</v>
+        <v>152927</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1887229051940239</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1592845593061692</v>
+        <v>0.1607544953454811</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2194195609736798</v>
+        <v>0.219392295714311</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>177</v>
@@ -785,19 +785,19 @@
         <v>190862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165671</v>
+        <v>165690</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>218784</v>
+        <v>219894</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.136279706388505</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1182928430765887</v>
+        <v>0.1183060058407473</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.156216224396732</v>
+        <v>0.1570089837070392</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>644156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>627557</v>
+        <v>627695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>657306</v>
+        <v>658041</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9156849612686578</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8920885896477249</v>
+        <v>0.8922859073150204</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9343774405367645</v>
+        <v>0.9354232831242829</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>530</v>
@@ -835,19 +835,19 @@
         <v>565501</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>544104</v>
+        <v>544123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>586021</v>
+        <v>584996</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8112770948059761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.78058043902632</v>
+        <v>0.780607704285689</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8407154406938304</v>
+        <v>0.839245504654519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1147</v>
@@ -856,19 +856,19 @@
         <v>1209657</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1181735</v>
+        <v>1180625</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1234848</v>
+        <v>1234829</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.863720293611495</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8437837756032678</v>
+        <v>0.8429910162929606</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8817071569234112</v>
+        <v>0.8816939941592525</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>66590</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51667</v>
+        <v>50298</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84023</v>
+        <v>84854</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06541601240899558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05075634388345744</v>
+        <v>0.04941113089729436</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08254195176828376</v>
+        <v>0.08335793605376991</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -981,19 +981,19 @@
         <v>166418</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>144741</v>
+        <v>144714</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>191472</v>
+        <v>191807</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1612292449423518</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1402275985591026</v>
+        <v>0.140201282463174</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.185501358779116</v>
+        <v>0.1858264719204668</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>212</v>
@@ -1002,19 +1002,19 @@
         <v>233008</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>203499</v>
+        <v>204545</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>262030</v>
+        <v>266667</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1136553101163679</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09926138144498307</v>
+        <v>0.09977167319459035</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1278114606743086</v>
+        <v>0.1300732608649417</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>951357</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>933924</v>
+        <v>933093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>966280</v>
+        <v>967649</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9345839875910045</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9174580482317163</v>
+        <v>0.91664206394623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9492436561165425</v>
+        <v>0.9505888691027055</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>788</v>
@@ -1052,19 +1052,19 @@
         <v>865766</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>840712</v>
+        <v>840377</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>887443</v>
+        <v>887470</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8387707550576482</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8144986412208839</v>
+        <v>0.8141735280795332</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8597724014408973</v>
+        <v>0.8597987175368261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1664</v>
@@ -1073,19 +1073,19 @@
         <v>1817123</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1788101</v>
+        <v>1783464</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1846632</v>
+        <v>1845586</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8863446898836321</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8721885393256914</v>
+        <v>0.8699267391350585</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9007386185550172</v>
+        <v>0.90022832680541</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>41474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30164</v>
+        <v>29861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56186</v>
+        <v>58759</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05474180719198746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03981427113884833</v>
+        <v>0.03941355655704811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07416129729082845</v>
+        <v>0.07755642767484623</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -1198,19 +1198,19 @@
         <v>114054</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94097</v>
+        <v>94868</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135302</v>
+        <v>134877</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1467547386483891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1210754197500279</v>
+        <v>0.1220676214797333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1740951030389544</v>
+        <v>0.1735479905688635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -1219,19 +1219,19 @@
         <v>155528</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130583</v>
+        <v>132359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>182210</v>
+        <v>184787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1013343165804076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08508151763121947</v>
+        <v>0.08623889763590604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1187191419562816</v>
+        <v>0.120398456968019</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>716149</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>701437</v>
+        <v>698864</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>727459</v>
+        <v>727762</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9452581928080126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9258387027091715</v>
+        <v>0.9224435723251548</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9601857288611517</v>
+        <v>0.960586443442952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>600</v>
@@ -1269,19 +1269,19 @@
         <v>663120</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>641872</v>
+        <v>642297</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>683077</v>
+        <v>682306</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8532452613516109</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8259048969610456</v>
+        <v>0.8264520094311364</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8789245802499721</v>
+        <v>0.8779323785202667</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1253</v>
@@ -1290,19 +1290,19 @@
         <v>1379269</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1352587</v>
+        <v>1350010</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1404214</v>
+        <v>1402438</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8986656834195924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8812808580437195</v>
+        <v>0.8796015430319812</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9149184823687806</v>
+        <v>0.913761102364094</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>60893</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45051</v>
+        <v>47724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75949</v>
+        <v>79225</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06425108844295188</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04753542697244111</v>
+        <v>0.05035511958707833</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08013693960877059</v>
+        <v>0.08359402147966097</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>159</v>
@@ -1415,19 +1415,19 @@
         <v>168212</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>145649</v>
+        <v>147193</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>192998</v>
+        <v>196897</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1599124392417219</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1384625112699197</v>
+        <v>0.1399306580672927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1834754448469456</v>
+        <v>0.1871822400738856</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>218</v>
@@ -1436,19 +1436,19 @@
         <v>229105</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>199704</v>
+        <v>202756</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>256788</v>
+        <v>260280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1145732725479823</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09987015248483672</v>
+        <v>0.1013961114850432</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1284170058590978</v>
+        <v>0.1301634489495329</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>886846</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>871790</v>
+        <v>868514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>902688</v>
+        <v>900015</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9357489115570481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9198630603912294</v>
+        <v>0.9164059785203389</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9524645730275588</v>
+        <v>0.9496448804129216</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>844</v>
@@ -1486,19 +1486,19 @@
         <v>883689</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>858903</v>
+        <v>855004</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>906252</v>
+        <v>904708</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8400875607582782</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8165245551530542</v>
+        <v>0.8128177599261142</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8615374887300802</v>
+        <v>0.8600693419327072</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1695</v>
@@ -1507,19 +1507,19 @@
         <v>1770535</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1742852</v>
+        <v>1739360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1799936</v>
+        <v>1796884</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8854267274520177</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8715829941409021</v>
+        <v>0.8698365510504671</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9001298475151632</v>
+        <v>0.8986038885149568</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>228270</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201715</v>
+        <v>199453</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>259194</v>
+        <v>258846</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06661358250945129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05886419902711722</v>
+        <v>0.05820421111470865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07563779031655364</v>
+        <v>0.07553627819715771</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>536</v>
@@ -1632,19 +1632,19 @@
         <v>580234</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>536139</v>
+        <v>538844</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>625414</v>
+        <v>625041</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1630644134729959</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1506723377128215</v>
+        <v>0.1514326321269351</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1757615556231975</v>
+        <v>0.1756567128164644</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>748</v>
@@ -1653,19 +1653,19 @@
         <v>808504</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>749772</v>
+        <v>749628</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>860427</v>
+        <v>857570</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1157470896223154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1073389647459468</v>
+        <v>0.1073182729257103</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1231805104111187</v>
+        <v>0.1227714926479408</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3198509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3167585</v>
+        <v>3167933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3225064</v>
+        <v>3227326</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9333864174905487</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9243622096834463</v>
+        <v>0.9244637218028422</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9411358009728827</v>
+        <v>0.9417957888852914</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2762</v>
@@ -1703,19 +1703,19 @@
         <v>2978075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2932895</v>
+        <v>2933268</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3022170</v>
+        <v>3019465</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8369355865270041</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8242384443768026</v>
+        <v>0.8243432871835357</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8493276622871785</v>
+        <v>0.848567367873065</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5759</v>
@@ -1724,19 +1724,19 @@
         <v>6176584</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6124661</v>
+        <v>6127518</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6235316</v>
+        <v>6235460</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8842529103776846</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8768194895888815</v>
+        <v>0.8772285073520593</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8926610352540534</v>
+        <v>0.8926817270742896</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>46807</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35386</v>
+        <v>34360</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62276</v>
+        <v>61499</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06936450491327205</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05243965613374416</v>
+        <v>0.05091865323779836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09228739679450079</v>
+        <v>0.09113696097978265</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -2089,19 +2089,19 @@
         <v>93286</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>77484</v>
+        <v>76439</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112452</v>
+        <v>111541</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1386449688094417</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1151595070511458</v>
+        <v>0.1136068386844099</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1671302925638533</v>
+        <v>0.1657765388522986</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -2110,19 +2110,19 @@
         <v>140093</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>119029</v>
+        <v>119441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>165338</v>
+        <v>164587</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1039543305118529</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08832431221237204</v>
+        <v>0.08863005524032953</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1226871139910379</v>
+        <v>0.1221296496671274</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>627993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>612524</v>
+        <v>613301</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>639414</v>
+        <v>640440</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9306354950867279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9077126032054991</v>
+        <v>0.9088630390202174</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9475603438662558</v>
+        <v>0.9490813467622015</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>578</v>
@@ -2160,19 +2160,19 @@
         <v>579553</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>560387</v>
+        <v>561298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>595355</v>
+        <v>596400</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8613550311905583</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8328697074361467</v>
+        <v>0.8342234611477015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8848404929488541</v>
+        <v>0.8863931613155901</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1185</v>
@@ -2181,19 +2181,19 @@
         <v>1207546</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1182301</v>
+        <v>1183052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1228610</v>
+        <v>1228198</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8960456694881471</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8773128860089614</v>
+        <v>0.8778703503328726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.911675687787628</v>
+        <v>0.9113699447596706</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>71027</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55208</v>
+        <v>56936</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89987</v>
+        <v>90311</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06946903129678517</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05399651236606819</v>
+        <v>0.05568664438218594</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08801299761979424</v>
+        <v>0.08832971645357154</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -2306,19 +2306,19 @@
         <v>131635</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110867</v>
+        <v>110677</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156854</v>
+        <v>154877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1262186147574603</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1063050349429387</v>
+        <v>0.1061234242147765</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.150400025691743</v>
+        <v>0.1485045100400841</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>184</v>
@@ -2327,19 +2327,19 @@
         <v>202662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>176745</v>
+        <v>173697</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>233903</v>
+        <v>232192</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09812521575141517</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08557663099705042</v>
+        <v>0.08410070605694983</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1132512887286594</v>
+        <v>0.1124227079566966</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>951404</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>932444</v>
+        <v>932120</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>967223</v>
+        <v>965495</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9305309687032148</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.911987002380206</v>
+        <v>0.9116702835464282</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9460034876339319</v>
+        <v>0.944313355617814</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>860</v>
@@ -2377,19 +2377,19 @@
         <v>911278</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>886059</v>
+        <v>888036</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>932046</v>
+        <v>932236</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8737813852425397</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8495999743082571</v>
+        <v>0.8514954899599159</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8936949650570613</v>
+        <v>0.8938765757852235</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1744</v>
@@ -2398,19 +2398,19 @@
         <v>1862682</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1831441</v>
+        <v>1833152</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1888599</v>
+        <v>1891647</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9018747842485848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8867487112713405</v>
+        <v>0.8875772920433033</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9144233690029496</v>
+        <v>0.9158992939430497</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>43404</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31706</v>
+        <v>31283</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57788</v>
+        <v>58582</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05714480372313501</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04174313039043564</v>
+        <v>0.04118616866016681</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07608121042780713</v>
+        <v>0.07712643759033476</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -2523,19 +2523,19 @@
         <v>84481</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68351</v>
+        <v>67911</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104349</v>
+        <v>102393</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1076174332645759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08707042059496123</v>
+        <v>0.08650969786588905</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1329264181059657</v>
+        <v>0.1304346748264913</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>118</v>
@@ -2544,19 +2544,19 @@
         <v>127885</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>107568</v>
+        <v>106576</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>152095</v>
+        <v>151219</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08279708209408911</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06964305872461742</v>
+        <v>0.06900089728503485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09847126008206195</v>
+        <v>0.09790436984506842</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>716148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>701764</v>
+        <v>700970</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>727846</v>
+        <v>728269</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.942855196276865</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9239187895721926</v>
+        <v>0.9228735624096653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9582568696095644</v>
+        <v>0.9588138313398332</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>659</v>
@@ -2594,19 +2594,19 @@
         <v>700530</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>680662</v>
+        <v>682618</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>716660</v>
+        <v>717100</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8923825667354242</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8670735818940343</v>
+        <v>0.8695653251735086</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9129295794050388</v>
+        <v>0.9134903021341109</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1314</v>
@@ -2615,19 +2615,19 @@
         <v>1416678</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1392468</v>
+        <v>1393344</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1436995</v>
+        <v>1437987</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9172029179059109</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.901528739917938</v>
+        <v>0.9020956301549315</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9303569412753826</v>
+        <v>0.9309991027149651</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>66787</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51763</v>
+        <v>51718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83420</v>
+        <v>83195</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07123462947877729</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05521011778750559</v>
+        <v>0.05516162837160808</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08897494845779264</v>
+        <v>0.08873519062467075</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>134</v>
@@ -2740,19 +2740,19 @@
         <v>153102</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>128822</v>
+        <v>130729</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>179204</v>
+        <v>178713</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1466806796902987</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1234187882358044</v>
+        <v>0.1252461592779448</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1716880513913938</v>
+        <v>0.171217425427383</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>198</v>
@@ -2761,19 +2761,19 @@
         <v>219889</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>190421</v>
+        <v>191553</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>250413</v>
+        <v>249776</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1109798346730586</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09610694391252535</v>
+        <v>0.09667799787147455</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1263853517270081</v>
+        <v>0.1260639333226267</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>870780</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>854147</v>
+        <v>854372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>885804</v>
+        <v>885849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9287653705212228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9110250515422074</v>
+        <v>0.9112648093753293</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9447898822124944</v>
+        <v>0.9448383716283921</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>825</v>
@@ -2811,19 +2811,19 @@
         <v>890677</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>864575</v>
+        <v>865066</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>914957</v>
+        <v>913050</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8533193203097013</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8283119486086061</v>
+        <v>0.8287825745726169</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8765812117641956</v>
+        <v>0.8747538407220551</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1693</v>
@@ -2832,19 +2832,19 @@
         <v>1761457</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1730933</v>
+        <v>1731570</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1790925</v>
+        <v>1789793</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8890201653269414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.873614648272992</v>
+        <v>0.8739360666773733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9038930560874746</v>
+        <v>0.9033220021285255</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>228026</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>200957</v>
+        <v>198061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>258272</v>
+        <v>259806</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06717814695155318</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05920348655569497</v>
+        <v>0.0583502555889354</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07608892194863291</v>
+        <v>0.07654085190246197</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>416</v>
@@ -2957,19 +2957,19 @@
         <v>462504</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>419159</v>
+        <v>422255</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>501740</v>
+        <v>505256</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1304833906028542</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1182547476009358</v>
+        <v>0.1191281939959602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1415528757413859</v>
+        <v>0.1425448884298514</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>633</v>
@@ -2978,19 +2978,19 @@
         <v>690530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>641009</v>
+        <v>635683</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>742323</v>
+        <v>740039</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09951588672539331</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09237912693623766</v>
+        <v>0.09161158618356394</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1069800333982346</v>
+        <v>0.1066509541043104</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3166324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3136078</v>
+        <v>3134544</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3193393</v>
+        <v>3196289</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9328218530484468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.923911078051367</v>
+        <v>0.923459148097538</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.940796513444305</v>
+        <v>0.9416497444110645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2922</v>
@@ -3028,19 +3028,19 @@
         <v>3082038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3042802</v>
+        <v>3039286</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3125383</v>
+        <v>3122287</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8695166093971458</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8584471242586141</v>
+        <v>0.8574551115701486</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8817452523990644</v>
+        <v>0.8808718060040397</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5936</v>
@@ -3049,19 +3049,19 @@
         <v>6248362</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6196569</v>
+        <v>6198853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6297883</v>
+        <v>6303209</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9004841132746066</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8930199666017654</v>
+        <v>0.8933490458956896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9076208730637624</v>
+        <v>0.9083884138164361</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>101063</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86573</v>
+        <v>84679</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120891</v>
+        <v>118267</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.146318223155371</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1253387283754852</v>
+        <v>0.1225976737673887</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1750238105993122</v>
+        <v>0.1712255501065579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>362</v>
@@ -3414,19 +3414,19 @@
         <v>193411</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>175607</v>
+        <v>174802</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>213739</v>
+        <v>211369</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2634377553155856</v>
+        <v>0.2634377553155857</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2391874498546536</v>
+        <v>0.2380910853561977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.291126193773518</v>
+        <v>0.2878985042045755</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>491</v>
@@ -3435,19 +3435,19 @@
         <v>294474</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>271041</v>
+        <v>268424</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>321407</v>
+        <v>321820</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2066645191326097</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.190218744169884</v>
+        <v>0.1883825482313554</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2255664206049421</v>
+        <v>0.2258563093561913</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>589647</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>569819</v>
+        <v>572443</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>604137</v>
+        <v>606031</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.853681776844629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.824976189400688</v>
+        <v>0.8287744498934421</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8746612716245148</v>
+        <v>0.8774023262326116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>879</v>
@@ -3485,19 +3485,19 @@
         <v>540769</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>520441</v>
+        <v>522811</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>558573</v>
+        <v>559378</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7365622446844142</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.708873806226482</v>
+        <v>0.7121014957954247</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7608125501453465</v>
+        <v>0.7619089146438022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1480</v>
@@ -3506,19 +3506,19 @@
         <v>1130415</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1103482</v>
+        <v>1103069</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1153848</v>
+        <v>1156465</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7933354808673901</v>
+        <v>0.7933354808673904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7744335793950577</v>
+        <v>0.7741436906438087</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.809781255830116</v>
+        <v>0.8116174517686443</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>119330</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101308</v>
+        <v>101306</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140594</v>
+        <v>141504</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1137653312098381</v>
+        <v>0.113765331209838</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09658358803645559</v>
+        <v>0.09658107052072423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1340374860726908</v>
+        <v>0.1349046469778669</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>435</v>
@@ -3631,19 +3631,19 @@
         <v>277663</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>251848</v>
+        <v>254414</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>303175</v>
+        <v>301943</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2591414641585116</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.235047881235894</v>
+        <v>0.2374433595990757</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2829514022454857</v>
+        <v>0.2818015251301709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>574</v>
@@ -3652,19 +3652,19 @@
         <v>396994</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>363642</v>
+        <v>365445</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>431168</v>
+        <v>431292</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1872266681977303</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1714975705320612</v>
+        <v>0.1723479613334953</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2033435437868993</v>
+        <v>0.203402054278194</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>929587</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>908323</v>
+        <v>907413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947609</v>
+        <v>947611</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8862346687901621</v>
+        <v>0.8862346687901619</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8659625139273093</v>
+        <v>0.865095353022133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9034164119635445</v>
+        <v>0.9034189294792756</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1082</v>
@@ -3702,19 +3702,19 @@
         <v>793811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>768299</v>
+        <v>769531</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>819626</v>
+        <v>817060</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7408585358414884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7170485977545149</v>
+        <v>0.718198474869829</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.764952118764106</v>
+        <v>0.7625566404009243</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1907</v>
@@ -3723,19 +3723,19 @@
         <v>1723397</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1689223</v>
+        <v>1689099</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1756749</v>
+        <v>1754946</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8127733318022697</v>
+        <v>0.8127733318022696</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7966564562131007</v>
+        <v>0.796597945721806</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8285024294679388</v>
+        <v>0.8276520386665046</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>95024</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76867</v>
+        <v>79126</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116233</v>
+        <v>115188</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1183253192789189</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09571602195729163</v>
+        <v>0.09852924132007491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1447357391505853</v>
+        <v>0.1434334408796686</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>309</v>
@@ -3848,19 +3848,19 @@
         <v>225050</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>201499</v>
+        <v>205612</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>250017</v>
+        <v>249897</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2770665531497318</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2480723045317169</v>
+        <v>0.253135795270844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3078046208984653</v>
+        <v>0.307656697546654</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>403</v>
@@ -3869,19 +3869,19 @@
         <v>320074</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>291848</v>
+        <v>289478</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>351675</v>
+        <v>352263</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1981472825704672</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1806738240947033</v>
+        <v>0.1792067742694946</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2177108510078846</v>
+        <v>0.2180745473203828</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>708049</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>686840</v>
+        <v>687885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>726206</v>
+        <v>723947</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.881674680721081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8552642608494148</v>
+        <v>0.8565665591203312</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9042839780427083</v>
+        <v>0.9014707586799249</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>738</v>
@@ -3919,19 +3919,19 @@
         <v>587209</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>562242</v>
+        <v>562362</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>610760</v>
+        <v>606647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7229334468502682</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6921953791015346</v>
+        <v>0.6923433024533457</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7519276954682831</v>
+        <v>0.746864204729156</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1320</v>
@@ -3940,19 +3940,19 @@
         <v>1295258</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1263657</v>
+        <v>1263069</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1323484</v>
+        <v>1325854</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8018527174295329</v>
+        <v>0.8018527174295328</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7822891489921154</v>
+        <v>0.7819254526796172</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8193261759052968</v>
+        <v>0.8207932257305054</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>139493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119619</v>
+        <v>117918</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>160364</v>
+        <v>161624</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1408930054632359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1208200041984849</v>
+        <v>0.1191018809300841</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1619734574177155</v>
+        <v>0.1632468067126438</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>442</v>
@@ -4065,19 +4065,19 @@
         <v>301786</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>276214</v>
+        <v>275744</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>328360</v>
+        <v>327099</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2696828405331534</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.246831390862859</v>
+        <v>0.2464106786009467</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2934294863299841</v>
+        <v>0.2923031966392132</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>604</v>
@@ -4086,19 +4086,19 @@
         <v>441279</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>410128</v>
+        <v>408945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>477128</v>
+        <v>473661</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2092259003789329</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1944558572256694</v>
+        <v>0.1938950416417262</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2262231926291848</v>
+        <v>0.2245793246494273</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>850569</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>829698</v>
+        <v>828438</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>870443</v>
+        <v>872144</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.859106994536764</v>
+        <v>0.8591069945367641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8380265425822845</v>
+        <v>0.8367531932873563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8791799958015147</v>
+        <v>0.8808981190699159</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1120</v>
@@ -4136,19 +4136,19 @@
         <v>817255</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>790681</v>
+        <v>791942</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>842827</v>
+        <v>843297</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7303171594668467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7065705136700153</v>
+        <v>0.7076968033607868</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7531686091371408</v>
+        <v>0.7535893213990532</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1964</v>
@@ -4157,19 +4157,19 @@
         <v>1667825</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1631976</v>
+        <v>1635443</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1698976</v>
+        <v>1700159</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7907740996210672</v>
+        <v>0.790774099621067</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.773776807370815</v>
+        <v>0.7754206753505727</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8055441427743305</v>
+        <v>0.8061049583582742</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>454911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>418319</v>
+        <v>416148</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>494141</v>
+        <v>493635</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1287690830926663</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1184113524953561</v>
+        <v>0.117796707733312</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1398739045250559</v>
+        <v>0.1397306671235299</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1548</v>
@@ -4282,19 +4282,19 @@
         <v>997910</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>943567</v>
+        <v>950080</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1046623</v>
+        <v>1044336</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2670383486971181</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2524961827463597</v>
+        <v>0.2542391733648293</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2800738435272774</v>
+        <v>0.2794617088889694</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2072</v>
@@ -4303,19 +4303,19 @@
         <v>1452821</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1391935</v>
+        <v>1391491</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1519532</v>
+        <v>1512079</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1998455739564969</v>
+        <v>0.1998455739564968</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1914702871060758</v>
+        <v>0.1914092555334616</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2090221462754771</v>
+        <v>0.2079970453229994</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3077851</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3038621</v>
+        <v>3039127</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3114443</v>
+        <v>3116614</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8712309169073338</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8601260954749442</v>
+        <v>0.8602693328764698</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8815886475046439</v>
+        <v>0.8822032922666879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3819</v>
@@ -4353,19 +4353,19 @@
         <v>2739044</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2690331</v>
+        <v>2692618</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2793387</v>
+        <v>2786874</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.732961651302882</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7199261564727225</v>
+        <v>0.7205382911110305</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7475038172536403</v>
+        <v>0.7457608266351707</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6671</v>
@@ -4374,19 +4374,19 @@
         <v>5816895</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5750184</v>
+        <v>5757637</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5877781</v>
+        <v>5878225</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8001544260435032</v>
+        <v>0.8001544260435031</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7909778537245227</v>
+        <v>0.7920029546770005</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8085297128939242</v>
+        <v>0.8085907444665382</v>
       </c>
     </row>
     <row r="18">
